--- a/user-data/poverty-310/poverty-310.xlsx
+++ b/user-data/poverty-310/poverty-310.xlsx
@@ -853,7 +853,7 @@
     <t xml:space="preserve">Name: poverty-310</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Percentage of population living under $3.10 per day.</t>
+    <t xml:space="preserve">Description: Percentage of population living under 2011 PPP$ 3.10 per day.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>

--- a/user-data/poverty-310/poverty-310.xlsx
+++ b/user-data/poverty-310/poverty-310.xlsx
@@ -1051,13 +1051,13 @@
     <t xml:space="preserve">Name: poverty-310</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Data for those living under $3.10 a day illustrates that while many people are not in extreme poverty (less than $1.90 a day) they are still very poor.</t>
+    <t xml:space="preserve">Description: Data for those living under $3.10 a day illustrates that while many people are not in extreme poverty (less than $1.90 a day) they are still very poor. 2013 represents the most recent year data is available.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 61</t>
+    <t xml:space="preserve">Source: 62</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 3</t>

--- a/user-data/poverty-310/poverty-310.xlsx
+++ b/user-data/poverty-310/poverty-310.xlsx
@@ -1057,7 +1057,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 62</t>
+    <t xml:space="preserve">Source: 63</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 3</t>

--- a/user-data/poverty-310/poverty-310.xlsx
+++ b/user-data/poverty-310/poverty-310.xlsx
@@ -1051,13 +1051,13 @@
     <t xml:space="preserve">Name: poverty-310</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Data for those living under $3.10 a day illustrates that while many people are not in extreme poverty (less than $1.90 a day) they are still very poor.</t>
+    <t xml:space="preserve">Description: Data for those living under $3.10 a day illustrates that while many people are not in extreme poverty (less than $1.90 a day) they are still very poor. 2013 represents the most recent year data is available.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 61</t>
+    <t xml:space="preserve">Source: 63</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 3</t>
